--- a/BurndownChart-26.04To10.05.xlsx
+++ b/BurndownChart-26.04To10.05.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Status</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>TGG</t>
+  </si>
+  <si>
+    <t>JWG</t>
+  </si>
+  <si>
+    <t>TGG / JWG</t>
+  </si>
+  <si>
+    <t>JMR</t>
   </si>
 </sst>
 </file>
@@ -420,108 +429,100 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Sprint1!$G$1:$AA$1</c:f>
-              <c:strCache>
-                <c:ptCount val="21"/>
+            <c:numRef>
+              <c:f>Sprint1!$G$1:$X$1</c:f>
+              <c:numCache>
+                <c:formatCode>"J "\ 0</c:formatCode>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>J  1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>J  2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>J  3</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>J  4</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>J  5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>J  6</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>J  7</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>J  8</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>J  9</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>J  10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>J  11</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>J  12</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>J  13</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>J  14</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>J  15</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>J  16</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>J  17</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>J  18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>J  19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>J  20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>SR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sprint1!$G$16:$AA$16</c:f>
+              <c:f>Sprint1!$G$16:$X$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -593,63 +594,63 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sprint1!$G$17:$AA$17</c:f>
+              <c:f>Sprint1!$G$17:$X$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.888888888888889</c:v>
+                  <c:v>37.777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.777777777777779</c:v>
+                  <c:v>35.555555555555557</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.666666666666668</c:v>
+                  <c:v>33.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.555555555555557</c:v>
+                  <c:v>31.111111111111114</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.444444444444446</c:v>
+                  <c:v>28.888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.333333333333336</c:v>
+                  <c:v>26.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.222222222222225</c:v>
+                  <c:v>24.44444444444445</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.111111111111114</c:v>
+                  <c:v>22.222222222222229</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.000000000000004</c:v>
+                  <c:v>20.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.8888888888888928</c:v>
+                  <c:v>17.777777777777786</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.7777777777777821</c:v>
+                  <c:v>15.555555555555564</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.6666666666666714</c:v>
+                  <c:v>13.333333333333343</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.5555555555555607</c:v>
+                  <c:v>11.111111111111121</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.44444444444445</c:v>
+                  <c:v>8.8888888888888999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.3333333333333388</c:v>
+                  <c:v>6.6666666666666776</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.2222222222222276</c:v>
+                  <c:v>4.4444444444444553</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1111111111111165</c:v>
+                  <c:v>2.222222222222233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -696,7 +697,7 @@
         <c:axId val="2136374360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="20"/>
+          <c:max val="40"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1057,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC23" sqref="AC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1066,14 +1067,17 @@
     <col min="1" max="1" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.140625" style="1" customWidth="1"/>
     <col min="8" max="10" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" style="1" customWidth="1"/>
-    <col min="12" max="15" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="26" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" style="1" customWidth="1"/>
+    <col min="16" max="23" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" style="1" customWidth="1"/>
+    <col min="25" max="26" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="16384" width="12" style="1"/>
   </cols>
@@ -1205,21 +1209,35 @@
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="19">
+        <v>4</v>
+      </c>
+      <c r="G3" s="19">
+        <v>4</v>
+      </c>
+      <c r="H3" s="19">
         <v>2</v>
       </c>
-      <c r="G3" s="19">
-        <v>2</v>
-      </c>
-      <c r="H3" s="19">
-        <v>1</v>
-      </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
+      <c r="I3" s="19">
+        <v>0</v>
+      </c>
+      <c r="J3" s="19">
+        <v>0</v>
+      </c>
+      <c r="K3" s="19">
+        <v>0</v>
+      </c>
+      <c r="L3" s="19">
+        <v>0</v>
+      </c>
+      <c r="M3" s="19">
+        <v>0</v>
+      </c>
+      <c r="N3" s="19">
+        <v>0</v>
+      </c>
+      <c r="O3" s="19">
+        <v>0</v>
+      </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
@@ -1241,24 +1259,40 @@
         <v>11</v>
       </c>
       <c r="C4" s="18"/>
-      <c r="D4" s="16"/>
+      <c r="D4" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="E4" s="15"/>
       <c r="F4" s="19">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G4" s="19">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H4" s="19">
-        <v>8</v>
-      </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="I4" s="19">
+        <v>16</v>
+      </c>
+      <c r="J4" s="19">
+        <v>14</v>
+      </c>
+      <c r="K4" s="19">
+        <v>14</v>
+      </c>
+      <c r="L4" s="19">
+        <v>13</v>
+      </c>
+      <c r="M4" s="19">
+        <v>13</v>
+      </c>
+      <c r="N4" s="19">
+        <v>13</v>
+      </c>
+      <c r="O4" s="19">
+        <v>11</v>
+      </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
@@ -1280,24 +1314,40 @@
         <v>12</v>
       </c>
       <c r="C5" s="18"/>
-      <c r="D5" s="16"/>
+      <c r="D5" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="E5" s="15"/>
       <c r="F5" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G5" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H5" s="19">
-        <v>5</v>
-      </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="I5" s="19">
+        <v>10</v>
+      </c>
+      <c r="J5" s="19">
+        <v>10</v>
+      </c>
+      <c r="K5" s="19">
+        <v>10</v>
+      </c>
+      <c r="L5" s="19">
+        <v>10</v>
+      </c>
+      <c r="M5" s="19">
+        <v>10</v>
+      </c>
+      <c r="N5" s="19">
+        <v>10</v>
+      </c>
+      <c r="O5" s="19">
+        <v>10</v>
+      </c>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
@@ -1319,24 +1369,40 @@
         <v>13</v>
       </c>
       <c r="C6" s="18"/>
-      <c r="D6" s="16"/>
+      <c r="D6" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="E6" s="15"/>
       <c r="F6" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G6" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H6" s="19">
-        <v>5</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="I6" s="19">
+        <v>10</v>
+      </c>
+      <c r="J6" s="19">
+        <v>8</v>
+      </c>
+      <c r="K6" s="19">
+        <v>6</v>
+      </c>
+      <c r="L6" s="19">
+        <v>6</v>
+      </c>
+      <c r="M6" s="19">
+        <v>3</v>
+      </c>
+      <c r="N6" s="19">
+        <v>3</v>
+      </c>
+      <c r="O6" s="19">
+        <v>0</v>
+      </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
@@ -1621,43 +1687,43 @@
       <c r="E16" s="6"/>
       <c r="F16" s="7">
         <f>SUM(F3:F14)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" ref="G16:AA16" si="0">SUM(G3:G14)</f>
-        <v>20</v>
+        <f t="shared" ref="G16:X16" si="0">SUM(G3:G14)</f>
+        <v>40</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="I16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="M16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="N16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P16" s="6">
         <f t="shared" si="0"/>
@@ -1705,75 +1771,75 @@
       </c>
       <c r="G17" s="1">
         <f>F16</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H17" s="1">
         <f>G17-$G$17/COUNT($G$16:$Z$16)</f>
-        <v>18.888888888888889</v>
+        <v>37.777777777777779</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" ref="I17:AA17" si="1">H17-$G$17/COUNT($G$16:$Z$16)</f>
-        <v>17.777777777777779</v>
+        <f t="shared" ref="I17:X17" si="1">H17-$G$17/COUNT($G$16:$Z$16)</f>
+        <v>35.555555555555557</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="1"/>
-        <v>16.666666666666668</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="1"/>
-        <v>15.555555555555557</v>
+        <v>31.111111111111114</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="1"/>
-        <v>14.444444444444446</v>
+        <v>28.888888888888893</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" si="1"/>
-        <v>13.333333333333336</v>
+        <v>26.666666666666671</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" si="1"/>
-        <v>12.222222222222225</v>
+        <v>24.44444444444445</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" si="1"/>
-        <v>11.111111111111114</v>
+        <v>22.222222222222229</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" si="1"/>
-        <v>10.000000000000004</v>
+        <v>20.000000000000007</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="1"/>
-        <v>8.8888888888888928</v>
+        <v>17.777777777777786</v>
       </c>
       <c r="R17" s="1">
         <f t="shared" si="1"/>
-        <v>7.7777777777777821</v>
+        <v>15.555555555555564</v>
       </c>
       <c r="S17" s="1">
         <f t="shared" si="1"/>
-        <v>6.6666666666666714</v>
+        <v>13.333333333333343</v>
       </c>
       <c r="T17" s="1">
         <f t="shared" si="1"/>
-        <v>5.5555555555555607</v>
+        <v>11.111111111111121</v>
       </c>
       <c r="U17" s="1">
         <f t="shared" si="1"/>
-        <v>4.44444444444445</v>
+        <v>8.8888888888888999</v>
       </c>
       <c r="V17" s="1">
         <f t="shared" si="1"/>
-        <v>3.3333333333333388</v>
+        <v>6.6666666666666776</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" si="1"/>
-        <v>2.2222222222222276</v>
+        <v>4.4444444444444553</v>
       </c>
       <c r="X17" s="1">
         <f t="shared" si="1"/>
-        <v>1.1111111111111165</v>
+        <v>2.222222222222233</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">

--- a/BurndownChart-26.04To10.05.xlsx
+++ b/BurndownChart-26.04To10.05.xlsx
@@ -525,31 +525,31 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:AA39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC23" sqref="AC23"/>
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1293,15 +1293,33 @@
       <c r="O4" s="19">
         <v>11</v>
       </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
+      <c r="P4" s="19">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>11</v>
+      </c>
+      <c r="R4" s="19">
+        <v>11</v>
+      </c>
+      <c r="S4" s="19">
+        <v>11</v>
+      </c>
+      <c r="T4" s="19">
+        <v>11</v>
+      </c>
+      <c r="U4" s="19">
+        <v>11</v>
+      </c>
+      <c r="V4" s="19">
+        <v>11</v>
+      </c>
+      <c r="W4" s="19">
+        <v>11</v>
+      </c>
+      <c r="X4" s="19">
+        <v>11</v>
+      </c>
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
@@ -1348,15 +1366,33 @@
       <c r="O5" s="19">
         <v>10</v>
       </c>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
+      <c r="P5" s="19">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>10</v>
+      </c>
+      <c r="R5" s="19">
+        <v>10</v>
+      </c>
+      <c r="S5" s="19">
+        <v>10</v>
+      </c>
+      <c r="T5" s="19">
+        <v>10</v>
+      </c>
+      <c r="U5" s="19">
+        <v>10</v>
+      </c>
+      <c r="V5" s="19">
+        <v>10</v>
+      </c>
+      <c r="W5" s="19">
+        <v>10</v>
+      </c>
+      <c r="X5" s="19">
+        <v>10</v>
+      </c>
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
@@ -1403,15 +1439,33 @@
       <c r="O6" s="19">
         <v>0</v>
       </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
+      <c r="P6" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>0</v>
+      </c>
+      <c r="R6" s="19">
+        <v>0</v>
+      </c>
+      <c r="S6" s="19">
+        <v>0</v>
+      </c>
+      <c r="T6" s="19">
+        <v>0</v>
+      </c>
+      <c r="U6" s="19">
+        <v>0</v>
+      </c>
+      <c r="V6" s="19">
+        <v>0</v>
+      </c>
+      <c r="W6" s="19">
+        <v>0</v>
+      </c>
+      <c r="X6" s="19">
+        <v>0</v>
+      </c>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
@@ -1727,39 +1781,39 @@
       </c>
       <c r="P16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Q16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="R16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="S16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="T16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="U16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="V16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="W16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="X16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
@@ -1878,50 +1932,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
@@ -2098,7 +2109,50 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2110,9 +2164,19 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2138,19 +2202,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/BurndownChart-26.04To10.05.xlsx
+++ b/BurndownChart-26.04To10.05.xlsx
@@ -525,31 +525,31 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1058,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1293,33 +1293,15 @@
       <c r="O4" s="19">
         <v>11</v>
       </c>
-      <c r="P4" s="19">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="19">
-        <v>11</v>
-      </c>
-      <c r="R4" s="19">
-        <v>11</v>
-      </c>
-      <c r="S4" s="19">
-        <v>11</v>
-      </c>
-      <c r="T4" s="19">
-        <v>11</v>
-      </c>
-      <c r="U4" s="19">
-        <v>11</v>
-      </c>
-      <c r="V4" s="19">
-        <v>11</v>
-      </c>
-      <c r="W4" s="19">
-        <v>11</v>
-      </c>
-      <c r="X4" s="19">
-        <v>11</v>
-      </c>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
@@ -1366,33 +1348,15 @@
       <c r="O5" s="19">
         <v>10</v>
       </c>
-      <c r="P5" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="19">
-        <v>10</v>
-      </c>
-      <c r="R5" s="19">
-        <v>10</v>
-      </c>
-      <c r="S5" s="19">
-        <v>10</v>
-      </c>
-      <c r="T5" s="19">
-        <v>10</v>
-      </c>
-      <c r="U5" s="19">
-        <v>10</v>
-      </c>
-      <c r="V5" s="19">
-        <v>10</v>
-      </c>
-      <c r="W5" s="19">
-        <v>10</v>
-      </c>
-      <c r="X5" s="19">
-        <v>10</v>
-      </c>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
@@ -1439,33 +1403,15 @@
       <c r="O6" s="19">
         <v>0</v>
       </c>
-      <c r="P6" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="19">
-        <v>0</v>
-      </c>
-      <c r="R6" s="19">
-        <v>0</v>
-      </c>
-      <c r="S6" s="19">
-        <v>0</v>
-      </c>
-      <c r="T6" s="19">
-        <v>0</v>
-      </c>
-      <c r="U6" s="19">
-        <v>0</v>
-      </c>
-      <c r="V6" s="19">
-        <v>0</v>
-      </c>
-      <c r="W6" s="19">
-        <v>0</v>
-      </c>
-      <c r="X6" s="19">
-        <v>0</v>
-      </c>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
@@ -1781,39 +1727,39 @@
       </c>
       <c r="P16" s="6">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="6">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="R16" s="6">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="S16" s="6">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="T16" s="6">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="U16" s="6">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="V16" s="6">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="W16" s="6">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="X16" s="6">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
@@ -1932,7 +1878,50 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
@@ -2109,50 +2098,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2164,19 +2110,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2202,9 +2138,19 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>